--- a/biology/Biochimie/Hydroxyméthylglutaryl-CoA_réductase_(NADPH)/Hydroxyméthylglutaryl-CoA_réductase_(NADPH).xlsx
+++ b/biology/Biochimie/Hydroxyméthylglutaryl-CoA_réductase_(NADPH)/Hydroxyméthylglutaryl-CoA_réductase_(NADPH).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hydroxym%C3%A9thylglutaryl-CoA_r%C3%A9ductase_(NADPH)</t>
+          <t>Hydroxyméthylglutaryl-CoA_réductase_(NADPH)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hydroxyméthylglutaryl-CoA réductase (NADPH), abrégée en HMG-CoA réductase (NADPH) ou HMGCR (NADPH), est une oxydoréductase intervenant dans la voie du mévalonate, dont elle régule l'intensité. La voie du mévalonate est une voie métabolique importante chez les eucaryotes supérieurs et certaines bactéries car elle produit les précurseurs du cholestérol et d'autres terpénoïdes. L'HMG-CoA réductase (NADPH) catalyse la réaction :
 L'hydroxyméthylglutaryl-CoA réductase (HMG-CoA réductase, EC 1.1.1.88) est l'équivalent de cette enzyme fonctionnant avec le NADH au lieu du NADPH.
